--- a/test-data/peak_hold_test-2-output.xlsx
+++ b/test-data/peak_hold_test-2-output.xlsx
@@ -368,10 +368,10 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.35"/>
@@ -817,8 +817,7 @@
       <c r="J9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="8" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="K9" s="8" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
